--- a/biology/Histoire de la zoologie et de la botanique/Hôtel_de_Magny/Hôtel_de_Magny.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Hôtel_de_Magny/Hôtel_de_Magny.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4tel_de_Magny</t>
+          <t>Hôtel_de_Magny</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hôtel de Magny, au Jardin des plantes, à Paris, en France, est un ancien hôtel particulier qui abrite la direction et l'administration centrale du Muséum national d'histoire naturelle, des salons d'honneur où se trouve une grande maquette du Jardin des plantes à l'orée du XIXe siècle et le centre de tri postal de l'établissement. L'hôtel de Magny est un bâtiment administratif ; des bureaux au rez-de-chaussée reçoivent le public sur rendez-vous.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4tel_de_Magny</t>
+          <t>Hôtel_de_Magny</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Histoire du bâtiment</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Construit entre 1696 et 1700 par Pierre Bullet pour Elisabeth Thomé, l'hôtel de Magny tient son nom de la famille qui en fut propriétaire de 1758 à 1779 et le rénova. L'hôtel de Magny était initialement limitrophe du Jardin royal des plantes médicinales, dit le Jardin du Roi à partir de 1718. En 1787, Buffon, intendant du Jardin du Roi de 1739 à 1788, fit entrer cette propriété et ses jardins dans l'enceinte du Jardin du Roi. En 1788 un nouvel amphithéâtre, dit « amphithéâtre Verniquet » du nom de son architecte Edme Verniquet (1727-1804), est bâti dans ce qui était deux ans auparavant la propriété Magny : ce fut le dernier chantier de l'Ancien Régime au Muséum. À partir de 1780, l'hôtel de Magny abrite les salons et bureaux des intendants du Jardin puis, à partir de 1793, des directeurs du Muséum ; l'Assemblée des Professeurs s'y réunissait.
-À sa base, à gauche du portail, se trouve l'entrée des carrières souterraines du jardin des plantes (qui ne communiquent pas avec les autres)[1], où l'on exploitait, notamment sous le « grand labyrinthe » coiffé par un « belvédère » ou « gloriette » métallique, du calcaire lutétien ayant servi, entre autres, à Edme Verniquet pour l'amphithéâtre et à Armand Viré pour y installer son laboratoire de « zoologie cavernicole » entre 1896 et 1914 (sa paillasse et divers éléments s'y trouvent encore)[2]. Le 23 mars 1993, le jardin des plantes, ainsi que l'ensemble de ses bâtiments, sont classés monument historique[3].
+À sa base, à gauche du portail, se trouve l'entrée des carrières souterraines du jardin des plantes (qui ne communiquent pas avec les autres), où l'on exploitait, notamment sous le « grand labyrinthe » coiffé par un « belvédère » ou « gloriette » métallique, du calcaire lutétien ayant servi, entre autres, à Edme Verniquet pour l'amphithéâtre et à Armand Viré pour y installer son laboratoire de « zoologie cavernicole » entre 1896 et 1914 (sa paillasse et divers éléments s'y trouvent encore). Le 23 mars 1993, le jardin des plantes, ainsi que l'ensemble de ses bâtiments, sont classés monument historique.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%B4tel_de_Magny</t>
+          <t>Hôtel_de_Magny</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Le cabinet d'histoire du Jardin des plantes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">De février 2008 à janvier 2017, les salons d'honneur du rez-de-chaussée de l'hôtel de Magny ont abrité le « cabinet d'histoire du Jardin des plantes ». L'accès de ces salles au public pour un prix d'entrée modique permettait de visiter une présentation de l'évolution non pas de la biosphère mais du Jardin des plantes et du Muséum, depuis le stade initial de Jardin royal des plantes médicinales mis en place en 1626, jusqu'au stade actuel de grand établissement de recherche, de conservation, d'enseignement, de formation et de présentation au public.
 Le « cabinet d'Histoire » comprenait cinq salles : les trois premières salles présentaient l'histoire architecturale et topographique du Jardin au fil des siècles, à travers des œuvres uniques tel ce tableau (école française des années 1800) de la première girafe du Muséum ou « girafe de Levaillant », des bustes, d'anciens plans et la maquette du Jardin des plantes au début du XIXe siècle ; les deux autres salles étaient consacrées à des expositions temporaires où l'on a présenté à tour de rôle divers trésors du Muséum (livres anciens, minéraux, objets précieux, fossiles, coquillages rares, vélins…).
